--- a/氣象性能評估工具V2/data/obs/backup/2016-06-13_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-13_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-13 00:00:00</t>
+    <t>2016-06-13-00</t>
   </si>
   <si>
     <t>23.2</t>
@@ -154,7 +154,7 @@
     <t>27.3</t>
   </si>
   <si>
-    <t>2016-06-13 01:00:00</t>
+    <t>2016-06-13-01</t>
   </si>
   <si>
     <t>22.7</t>
@@ -205,7 +205,7 @@
     <t>27.5</t>
   </si>
   <si>
-    <t>2016-06-13 02:00:00</t>
+    <t>2016-06-13-02</t>
   </si>
   <si>
     <t>20.2</t>
@@ -235,7 +235,7 @@
     <t>26.8</t>
   </si>
   <si>
-    <t>2016-06-13 03:00:00</t>
+    <t>2016-06-13-03</t>
   </si>
   <si>
     <t>20.5</t>
@@ -274,7 +274,7 @@
     <t>27.7</t>
   </si>
   <si>
-    <t>2016-06-13 04:00:00</t>
+    <t>2016-06-13-04</t>
   </si>
   <si>
     <t>20.4</t>
@@ -298,7 +298,7 @@
     <t>28.2</t>
   </si>
   <si>
-    <t>2016-06-13 05:00:00</t>
+    <t>2016-06-13-05</t>
   </si>
   <si>
     <t>20.8</t>
@@ -325,7 +325,7 @@
     <t>29.0</t>
   </si>
   <si>
-    <t>2016-06-13 06:00:00</t>
+    <t>2016-06-13-06</t>
   </si>
   <si>
     <t>21.1</t>
@@ -349,7 +349,7 @@
     <t>29.4</t>
   </si>
   <si>
-    <t>2016-06-13 07:00:00</t>
+    <t>2016-06-13-07</t>
   </si>
   <si>
     <t>22.0</t>
@@ -370,7 +370,7 @@
     <t>29.8</t>
   </si>
   <si>
-    <t>2016-06-13 08:00:00</t>
+    <t>2016-06-13-08</t>
   </si>
   <si>
     <t>22.2</t>
@@ -382,7 +382,7 @@
     <t>28.3</t>
   </si>
   <si>
-    <t>2016-06-13 09:00:00</t>
+    <t>2016-06-13-09</t>
   </si>
   <si>
     <t>21.4</t>
@@ -403,7 +403,7 @@
     <t>31.0</t>
   </si>
   <si>
-    <t>2016-06-13 10:00:00</t>
+    <t>2016-06-13-10</t>
   </si>
   <si>
     <t>22.1</t>
@@ -418,7 +418,7 @@
     <t>31.7</t>
   </si>
   <si>
-    <t>2016-06-13 11:00:00</t>
+    <t>2016-06-13-11</t>
   </si>
   <si>
     <t>23.0</t>
@@ -442,7 +442,7 @@
     <t>31.9</t>
   </si>
   <si>
-    <t>2016-06-13 12:00:00</t>
+    <t>2016-06-13-12</t>
   </si>
   <si>
     <t>29.3</t>
@@ -475,7 +475,7 @@
     <t>32.2</t>
   </si>
   <si>
-    <t>2016-06-13 13:00:00</t>
+    <t>2016-06-13-13</t>
   </si>
   <si>
     <t>31.1</t>
@@ -496,7 +496,7 @@
     <t>32.0</t>
   </si>
   <si>
-    <t>2016-06-13 14:00:00</t>
+    <t>2016-06-13-14</t>
   </si>
   <si>
     <t>33.2</t>
@@ -505,7 +505,7 @@
     <t>7.9</t>
   </si>
   <si>
-    <t>2016-06-13 15:00:00</t>
+    <t>2016-06-13-15</t>
   </si>
   <si>
     <t>31.4</t>
@@ -523,7 +523,7 @@
     <t>30.8</t>
   </si>
   <si>
-    <t>2016-06-13 16:00:00</t>
+    <t>2016-06-13-16</t>
   </si>
   <si>
     <t>32.3</t>
@@ -538,7 +538,7 @@
     <t>5.8</t>
   </si>
   <si>
-    <t>2016-06-13 17:00:00</t>
+    <t>2016-06-13-17</t>
   </si>
   <si>
     <t>31.6</t>
@@ -550,7 +550,7 @@
     <t>5.5</t>
   </si>
   <si>
-    <t>2016-06-13 18:00:00</t>
+    <t>2016-06-13-18</t>
   </si>
   <si>
     <t>22.5</t>
@@ -565,7 +565,7 @@
     <t>5.6</t>
   </si>
   <si>
-    <t>2016-06-13 19:00:00</t>
+    <t>2016-06-13-19</t>
   </si>
   <si>
     <t>31.3</t>
@@ -577,13 +577,13 @@
     <t>12.1</t>
   </si>
   <si>
-    <t>2016-06-13 20:00:00</t>
+    <t>2016-06-13-20</t>
   </si>
   <si>
     <t>23.4</t>
   </si>
   <si>
-    <t>2016-06-13 21:00:00</t>
+    <t>2016-06-13-21</t>
   </si>
   <si>
     <t>23.8</t>
@@ -595,10 +595,10 @@
     <t>5.7</t>
   </si>
   <si>
-    <t>2016-06-13 22:00:00</t>
-  </si>
-  <si>
-    <t>2016-06-13 23:00:00</t>
+    <t>2016-06-13-22</t>
+  </si>
+  <si>
+    <t>2016-06-13-23</t>
   </si>
   <si>
     <t>22.8</t>
